--- a/quanlysinhvien/danhsachchuyennganh/lopchuyennganh/IT123_dsSV.xlsx
+++ b/quanlysinhvien/danhsachchuyennganh/lopchuyennganh/IT123_dsSV.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="31">
   <si>
     <t>Mã sinh viên</t>
   </si>
@@ -195,10 +195,10 @@
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -207,13 +207,13 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -222,15 +222,15 @@
         <v>18</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -239,13 +239,13 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -254,7 +254,7 @@
         <v>18</v>
       </c>
       <c r="K3" t="n">
-        <v>2.92</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
